--- a/biology/Botanique/Lavande/Lavande.xlsx
+++ b/biology/Botanique/Lavande/Lavande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lavandula
-Lavandula (les lavandes) est un genre de plantes de la famille des Lamiaceae[1],[2], anciennement nommées Labiées.
+Lavandula (les lavandes) est un genre de plantes de la famille des Lamiaceae anciennement nommées Labiées.
 Ce sont des arbrisseaux dicotylédones, à fleurs le plus souvent mauves ou violettes disposées en épis, dont la plupart des espèces très odorantes, sont largement utilisées dans toutes les branches de la parfumerie, en particulier le lavandin (Lavandula ×intermedia). Elles poussent surtout sur les sols calcaires secs et ensoleillés, à l'exception de Lavandula stoechas, qui préfère les sols siliceux.
 Toutes les lavandes sont des plantes mellifères, c'est-à-dire très recherchées par les abeilles.
 </t>
@@ -514,15 +526,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Venue de l'ouest du bassin méditerranéen, la lavande était déjà utilisée par les Romains pour conserver le linge et parfumer les bains. En Provence, la lavande fut utilisée au Moyen Âge, pour la composition de parfums et de médicaments, mais c'est à partir du XIXe siècle que sa culture se développa.
 Ce genre botanique a été décrit pour la première fois en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
 L'essor de la production française d'huile essentielle de lavande est lié à l'implantation de parfumeries dans la région de Grasse. La mise en culture organisée systématique du lavandin, dans les années 1950, prit ensuite le relais.
-La culture de la lavande du Quercy apparut également sur les derniers versants du sud-ouest du Massif central avant 1936 à Roquecor en Tarn-et-Garonne[3]. Celle-ci atteignit son apogée dans les années 1950 et 1960, et seuls quelques cultivateurs perpétuent encore cette tradition.
+La culture de la lavande du Quercy apparut également sur les derniers versants du sud-ouest du Massif central avant 1936 à Roquecor en Tarn-et-Garonne. Celle-ci atteignit son apogée dans les années 1950 et 1960, et seuls quelques cultivateurs perpétuent encore cette tradition.
 Après plusieurs crises qui entraînèrent la chute de la production et une régression des cultures, les plantations furent relancées par la stabilisation des surfaces à cultiver et le développement des moyens de distillation.
 De nos jours, la plus grande fête consacrée à la lavande en France est célébrée depuis près de 70 ans à l'occasion du « Corso de la Lavande » à Digne-les-Bains et s'achève par un défilé de chars décorés de lavande.
-Le phytoplasme du Stolbur a détruit 50 % de la récolte française d'huile essentielle de lavande entre 2005 et 2010, la réduisant à environ 30 tonnes en 2011. La Bulgarie avec une production de 45 tonnes en 2010 et entre 55 et 60 tonnes en 2011 est devenue le premier producteur mondial de lavande devant la France. Les deux pays fournissent les trois quarts de la production internationale et entre 80 % et 90 % de l'huile essentielle de lavande bulgare est vendue en France[4]. En 2017, La Bulgarie est toujours en première position, avec 187 tonnes, tandis que la France produisait 120 tonnes.
+Le phytoplasme du Stolbur a détruit 50 % de la récolte française d'huile essentielle de lavande entre 2005 et 2010, la réduisant à environ 30 tonnes en 2011. La Bulgarie avec une production de 45 tonnes en 2010 et entre 55 et 60 tonnes en 2011 est devenue le premier producteur mondial de lavande devant la France. Les deux pays fournissent les trois quarts de la production internationale et entre 80 % et 90 % de l'huile essentielle de lavande bulgare est vendue en France. En 2017, La Bulgarie est toujours en première position, avec 187 tonnes, tandis que la France produisait 120 tonnes.
 Il existe un musée de la lavande en Ardèche méridionale, dans le village de Saint-Remèze, et un autre à Coustellet dans le Luberon.
 La Chine cultive naturellement la lavande dans le bassin supérieur du Fleuve Jaune depuis la fin du XVe siècle.
 </t>
@@ -553,7 +567,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anciennement, les lavandes poussaient en Provence et dans quelques pays du bassin méditerranéen, puis la culture s’est répandue en Europe de l’Est (Bulgarie, Russie, Ukraine…) et même en Tasmanie ou encore au Canada où des plants mutés peuvent maintenant résister au gel.
@@ -561,7 +577,7 @@
 Des expériences ont été également menées en Quercy en 1936, où la culture de la lavande de population s'est implantée et développée dans le Lot et le Tarn-et-Garonne. L'ouvrage Les petites industries d'un département agricole rédigé par André Pueyo (éditions Forestié à Montauban) reprit en 1946 l'historique de son développement pour relancer l'économie départementale de l'après-guerre. Ainsi, des agriculteurs et des distillateurs produisirent la lavande du Quercy jusque dans les années 1970. Cette activité renaît progressivement depuis le milieu des années 2000, grâce au travail de producteurs locaux.
 La lavande aspic, par contre, est récoltée dans le bassin méditerranéen entre 0 et 600 m d’altitude.
 Les lavandes du groupe stoechas se développent sur tout son pourtour, notamment en Andalousie et dans la partie sud du Portugal.
-Les lavandins sont les lavandes les plus cultivées (historiquement de 800 à 1 000 tonnes d’essence par an en France) et les plus répandues, car ils sont les plus résistants. Ils se développent spontanément dans le sud de la France. Cependant, on observe un dépérissement de deux variétés de lavandins, l'abrial[6] et le sumian[7], qui sont en voie de disparition.
+Les lavandins sont les lavandes les plus cultivées (historiquement de 800 à 1 000 tonnes d’essence par an en France) et les plus répandues, car ils sont les plus résistants. Ils se développent spontanément dans le sud de la France. Cependant, on observe un dépérissement de deux variétés de lavandins, l'abrial et le sumian, qui sont en voie de disparition.
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Récolte de la lavande</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La récolte de la lavande se fait avant l'ouverture de la fleur de fin juillet à fin août, pour les lavandes « vraies ». À part l’aspic et la lavande « vraie » qui sont sauvages, les plantes sont généralement cultivées. Il existe cependant quelques distillations de lavandes sauvages de montagne, véritable lavande « vraie », destinées à l’aromathérapie et les quantités en sont très limitées. La récolte a lieu en été, car les fortes chaleurs favorisent la montée de l’essence dans les cellules et les glandes sécrétrices de la fleur. Les brins sont plus odoriférants s'ils sont cueillis juste avant l'ouverture des fleurs. Après, l'essentiel de l'arôme se perd.
 Les lavandes du groupe stoechas sont plus précoces : elles sont récoltées de mars à mai à l’état sauvage, mais elles sont plus rarement exploitées. Pour les cultures, la récolte s’effectue mécaniquement, sauf pour les bouquets qui sont coupés manuellement à la faucille.
@@ -624,7 +642,9 @@
           <t>Production de l’huile essentielle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux procédés principaux de production d’huile essentielle de lavande :
 La distillation traditionnelle : la récolte doit subir un temps de séchage, avant distillation, afin de perdre l’excès d’eau. Un préfanage d’environ un ou deux jours est indispensable pour la lavande fine, il évite de modifier la qualité des huiles essentielles qui sont obtenues par entraînement à la vapeur d’eau des sommités fleuries. On fait circuler un courant de vapeur d’eau dans la lavande coupée et bien tassée (temps de distillation relativement court, 30 à 45 min).
@@ -663,93 +683,175 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parfumerie
-Le mot lavande est un dérivé du verbe laver, peut-être issu de l'italien lavando (action de laver), et qui remonte au latin lavandaria : linge à laver, sans doute à l'origine de l'anglais lavender (lavendre vers 1265). Cette étymologie laisse penser que très tôt on a utilisé la lavande pour parfumer le linge fraîchement lavé. Des sachets de fleurs séchées sont traditionnellement placés dans les armoires, pour éloigner les mites et parfumer la garde-robe.
+          <t>Parfumerie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot lavande est un dérivé du verbe laver, peut-être issu de l'italien lavando (action de laver), et qui remonte au latin lavandaria : linge à laver, sans doute à l'origine de l'anglais lavender (lavendre vers 1265). Cette étymologie laisse penser que très tôt on a utilisé la lavande pour parfumer le linge fraîchement lavé. Des sachets de fleurs séchées sont traditionnellement placés dans les armoires, pour éloigner les mites et parfumer la garde-robe.
 Les fleurs de lavande, séchées, sont très résistantes et conservent leurs arômes très longtemps.
 Un autre usage très ancien est celui de mettre de la lavande dans l'eau du bain pour son parfum et ses propriétés antiseptiques et calmantes.
 L'essence de lavande contient des composants différents selon les espèces (voir ci-dessous). On l'obtient traditionnellement par distillation des sommités florales. Au XIXe siècle et au début du XXe siècle, la Provence était parsemée de petites distilleries familiales, qui ont peu à peu toutes disparu, victimes de crises de mévente et de l'industrialisation de la production.
 C'est bien sûr la parfumerie qui fait le plus gros usage de la lavande. On peut tout parfumer avec elle, depuis les savonnettes jusqu'aux détergents et au papier hygiénique. Dans les parfums proprement dits, la lavande est surtout réservée aux hommes, soit en soliflore dans les eaux de toilette, soit en note de cœur dans les eaux de Cologne.
 La lavande sert aussi à parfumer les salles de la maison : on les cueille et on les met dans des sachets qu'on accroche dans les chambres.
-Propriétés médicinales
-L'essence de lavande contient des composants différents selon les espèces, et on y trouve le plus souvent de l'acétate de linalyle, du linalol, du cinéol, du béta-caryophyllène, du β-ocimène, de l'acétate de  lavandulyle, du terpinen-4-ol, du β-ocimène, du β-farnésène et du borneol[8].
-La lavande a des propriétés antidépressives[9], antispasmodiques, sédatives et diurétiques[10]. L'huile essentielle de lavande est recommandée par Santé Magazine, pour favoriser la décontraction musculaire[11]. Elle augmente le taux sanguin de mélatonine[12].
-Depuis très longtemps, on prête des vertus cicatrisantes[13] et antiseptiques à la lavande[14] et sainte Hildegarde la conseillait comme cicatrisant. On lui trouvait des propriétés antivenimeuses et en cas de morsure de vipère, on frottait la plaie avec une poignée de lavande (ceci pourrait expliquer le nom de la lavande aspic). La plante est très utilisée pour combattre les mites et les poux[15].
-En phytothérapie, on la recommande pour combattre l'anxiété[16],[17], la nervosité et les insomnies[18],[19], ainsi que pour soulager les rhumatismes et soigner les infections des voies respiratoires. Elle peut être prise en infusion, en poudre (gélules), sous forme d'huile essentielle ou d'alcoolat, pour les frictions.
-L'huile essentielle de lavande est antiseptique et bactéricide[20]. Appliquée pure sur la peau elle soulagerait les brûlures et les piqûres d'insectes.
-Appliquée sur les tempes, elle soulagerait les douleurs migraineuses. La variété latifolia aurait un effet apaisant lors de crises de dermatite atopique (eczéma)[21].
-L'hydrolat de lavande serait sédatif, antalgique, anti-inflammatoire, répulsif et cicatrisant[22].
-Utilisation culinaire
-On peut faire infuser des fleurs de lavande dans du lait, utilisé ensuite pour la préparation de glace ou de crème à la lavande. Les infusions de lavandes calment la nervosité et peuvent soulager certains maux de tête[23].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations de la lavande</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'essence de lavande contient des composants différents selon les espèces, et on y trouve le plus souvent de l'acétate de linalyle, du linalol, du cinéol, du béta-caryophyllène, du β-ocimène, de l'acétate de  lavandulyle, du terpinen-4-ol, du β-ocimène, du β-farnésène et du borneol.
+La lavande a des propriétés antidépressives, antispasmodiques, sédatives et diurétiques. L'huile essentielle de lavande est recommandée par Santé Magazine, pour favoriser la décontraction musculaire. Elle augmente le taux sanguin de mélatonine.
+Depuis très longtemps, on prête des vertus cicatrisantes et antiseptiques à la lavande et sainte Hildegarde la conseillait comme cicatrisant. On lui trouvait des propriétés antivenimeuses et en cas de morsure de vipère, on frottait la plaie avec une poignée de lavande (ceci pourrait expliquer le nom de la lavande aspic). La plante est très utilisée pour combattre les mites et les poux.
+En phytothérapie, on la recommande pour combattre l'anxiété la nervosité et les insomnies ainsi que pour soulager les rhumatismes et soigner les infections des voies respiratoires. Elle peut être prise en infusion, en poudre (gélules), sous forme d'huile essentielle ou d'alcoolat, pour les frictions.
+L'huile essentielle de lavande est antiseptique et bactéricide. Appliquée pure sur la peau elle soulagerait les brûlures et les piqûres d'insectes.
+Appliquée sur les tempes, elle soulagerait les douleurs migraineuses. La variété latifolia aurait un effet apaisant lors de crises de dermatite atopique (eczéma).
+L'hydrolat de lavande serait sédatif, antalgique, anti-inflammatoire, répulsif et cicatrisant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations de la lavande</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Utilisation culinaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut faire infuser des fleurs de lavande dans du lait, utilisé ensuite pour la préparation de glace ou de crème à la lavande. Les infusions de lavandes calment la nervosité et peuvent soulager certains maux de tête.
 Dans certaines régions du Maghreb (Algérie), Lavandula stoechas est utilisée dans quelques préparations culinaires, dont le couscous.
 Les brins sont aussi utilisés dans les vallées (notamment celle de l'Estéron, près de Nice), afin de confectionner une liqueur particulièrement forte en bouche, dont on dit qu'elle a des vertus antiseptiques, digestives et calmantes.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lavande</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavande</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Rares sont les espèces d'insectes qui attaquent les plantes aussi bien protégées par leurs huiles essentielles que la lavande ; la chrysomèle de la lavande (ou du romarin), Chrysolina americana, en fait partie.
 Actuellement (2013), le principal ennemi de la lavande est le phytoplasme du stolbur, dont le vecteur est Hyalesthes obsoletus (Cixiidae). Cette maladie est appelée communément « dépérissement de la lavande ».
-L'autre ravageur important de la lavande est la cécidomyie (Resseliella lavandulae), dont les larves se développant sous l'écorce provoquent également des symptômes de dépérissement[24].
+L'autre ravageur important de la lavande est la cécidomyie (Resseliella lavandulae), dont les larves se développant sous l'écorce provoquent également des symptômes de dépérissement.
 D'autres ravageurs peuvent provoquer des dégâts importants (Arima marginata, crachat de coucou, punaise de la lavande, noctuelles, tordeuses, chenilles arpenteuses, pucerons).
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Lavande</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavande</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Liste des espèces
-Selon GRIN            (6 juillet 2015)[25] :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (6 juillet 2015) :
 Lavandula ×allardii Hy
-Lavandula angustifolia Mill. - la Lavande officinale[26] ou lavande vraie[2]
+Lavandula angustifolia Mill. - la Lavande officinale ou lavande vraie
 Lavandula antineae Maire
 Lavandula aristibracteata A. G. Mill.
 Lavandula atriplicifolia Benth.
@@ -767,9 +869,9 @@
 Lavandula galgalloensis A. G. Mill.
 Lavandula gibsonii J. Graham
 Lavandula hasikensis A. G. Mill.
-Lavandula ×intermedia Emeric ex Loisel. - le Lavandin[26]
+Lavandula ×intermedia Emeric ex Loisel. - le Lavandin
 Lavandula lanata Boiss.
-Lavandula latifolia Medik. - la Lavande à larges feuilles[26] ou lavande aspic]][2]
+Lavandula latifolia Medik. - la Lavande à larges feuilles ou lavande aspic]]
 Lavandula ×limae Rozeira
 Lavandula macra Baker
 Lavandula mairei Humbert
@@ -787,12 +889,12 @@
 Lavandula samhanensis Upson &amp; S. Andrews
 Lavandula setifera T. Anderson
 Lavandula somaliensis Chaytor
-Lavandula stoechas L. - la Lavande papillon ou Lavande stéchade[26],[2]
+Lavandula stoechas L. - la Lavande papillon ou Lavande stéchade,
 Lavandula sublepidota Rech. f.
 Lavandula subnuda Benth.
 Lavandula tenuisecta Coss. ex Ball
 Lavandula viridis L’Hér.
-Selon World Checklist of Selected Plant Families (WCSP)  (6 juillet 2015)[27] :
+Selon World Checklist of Selected Plant Families (WCSP)  (6 juillet 2015) :
 Lavandula × alportelensis P.Silva, Fontes &amp; Myre (1951)
 Lavandula angustifolia Mill. (1768)
 Lavandula antineae Maire (1929)
@@ -843,7 +945,7 @@
 Lavandula tenuisecta Coss. ex Ball, J. Linn. Soc. (1878)
 Lavandula viridis L'Hér. (1789)
 Liste selon Tropicos, contenant éventuellement des synonymes
-Selon Tropicos                                           (6 juillet 2015)[28] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 juillet 2015) (Attention liste brute contenant possiblement des synonymes) :
 Lavandula abrotanoides Lam.
 Lavandula angustifolia Mill.
 Lavandula antiatlantica Maire
@@ -933,7 +1035,7 @@
 Lavandula vulgaris Lam.
 Lavandula × allardii Hy
 Lavandula × alportelensis P. Silva, Fontes &amp; Myre
-Lavandula × aurigerana Mailho - la Lavande de l'Ariège[26]
+Lavandula × aurigerana Mailho - la Lavande de l'Ariège
 Lavandula × burnatii Briq.
 Lavandula × cadevallii Sennen
 Lavandula × cavanillesii D.Guillot &amp; Rosselló
@@ -951,22 +1053,172 @@
 Lavandula × losae Rivas Goday ex P. Sanchez Gomez, F. Alcaraz Ariza &amp; I. Garcia Vallejo
 Lavandula × sennenii Font Quer
 Lavandula × spica-latifolia Albert
-Principales espèces, sous-espèces et hybrides
-Selon Tim Upson, 2002[29] :
-Section Lavandula (= section Spica Ging.)
-Lavandula angustifolia Mill. C'est la meilleure des lavandes pour la qualité de son huile essentielle. À l'état sauvage, elle pousse naturellement surtout en haute Provence au-dessus de 700 à 800 mètres d’altitude. Robuste, elle résiste aux contraintes climatiques des montagnes sèches de la haute Provence, mais elle peut être cultivée dans des régions plus septentrionales, d'autant qu'il en existe de nombreux cultivars. C'est un arbrisseau buissonnant pouvant atteindre 0,50 m de haut. Les feuilles, linéaires et de couleur gris-vert, ont une longueur variant entre 3 et 5 cm. Lors de la floraison (juillet-août), la plante développe de longs pédoncules non ramifiés terminés par des épis dont la couleur varie du mauve pâle au violet. Seule l’huile essentielle issue de cette production sur une zone déterminée bénéficie de l’Appellation d'origine contrôlée (AOC), huile essentielle de lavande de Haute-Provence. On recense environ 4 000 hectares cultivés dans les 4 départements producteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tim Upson, 2002 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Section Lavandula (= section Spica Ging.)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lavandula angustifolia Mill. C'est la meilleure des lavandes pour la qualité de son huile essentielle. À l'état sauvage, elle pousse naturellement surtout en haute Provence au-dessus de 700 à 800 mètres d’altitude. Robuste, elle résiste aux contraintes climatiques des montagnes sèches de la haute Provence, mais elle peut être cultivée dans des régions plus septentrionales, d'autant qu'il en existe de nombreux cultivars. C'est un arbrisseau buissonnant pouvant atteindre 0,50 m de haut. Les feuilles, linéaires et de couleur gris-vert, ont une longueur variant entre 3 et 5 cm. Lors de la floraison (juillet-août), la plante développe de longs pédoncules non ramifiés terminés par des épis dont la couleur varie du mauve pâle au violet. Seule l’huile essentielle issue de cette production sur une zone déterminée bénéficie de l’Appellation d'origine contrôlée (AOC), huile essentielle de lavande de Haute-Provence. On recense environ 4 000 hectares cultivés dans les 4 départements producteurs.
 subsp. angustifolia
 subsp. pyrenaica (DC) Guinea
 Lavandula lanata Boiss. Lavande laineuse (sud de l'Espagne).
 Lavandula latifolia Medik. Par rapport à l'angustifolia, ses feuilles sont plus larges (elliptiques) et très odorantes. La floraison est plus précoce (juin-août), et les fleurs ont une odeur très camphrée. Elles poussent à l'extrémité de tiges ramifiées, ce qui est le moyen le plus sûr de la différencier de la lavande vraie. Elle est beaucoup moins appréciée en parfumerie.
 Hybrides
 Lavandula × intermedia Emeric. ex. Loisel. Également appelé lavandin, est un hybride naturel entre L. angustifolia et L. latifolia. C'est la troisième des lavandes provençales. Découvert un peu par hasard, il a été cultivé à partir des années 1930. Le lavandin est aujourd'hui l'espèce la plus cultivée, car sa fleur est plus productive en huile essentielle que la lavande vraie. Son essence de bonne qualité olfactive est plus camphrée que celle de la lavande, elle est très utilisée dans la parfumerie industrielle. Au cours des années, plusieurs variétés de cet hybride ont été sélectionnées et reproduites par bouturage. Les surfaces cultivées en lavandins sont estimées à 17 000 hectares. Les variétés les plus cultivées actuellement sont : Lavandin Grosso 80 % des surfaces en lavandins, Lavandin Abrial 10 % et Lavandin Super 10 %.
-Lavandula lanata Boiss. × Lavandula angustifolia Mill.
-Section Dentatae Suarez-Cerv. &amp; Seoane-Camba
-Lavandula dentata L. var. dentata (forme rosea Maire, forme albiflora Maire). Lavande dentée, appelée parfois « lavande anglaise », caractérisée par ses feuilles très découpées.
-Lavandula dentata L. var. candicans Batt.
-Section Stoechas Ging.
-Lavandula stoechas L. ou lavande stéchas, lavande papillon, cantueso (nom surtout donné à la sous-espèce L. stoechas pedunculata). À l'état sauvage, c'est certainement la lavande dont le territoire géographique est le plus vaste (tout le pourtour méditerranéen). Mais elle n'est d'aucune utilité en parfumerie : elle sent un peu le camphre, et rien d'autre. Elle se distingue des espèces précédentes par deux caractéristiques : d'une part elle apprécie surtout les terrains siliceux, notamment le schiste ; de l'autre elle possède à l'extrémité de ses épis de grandes bractées violettes, souvent plus foncées que les fleurs proprement dites. Floraison : avril-juillet.
+Lavandula lanata Boiss. × Lavandula angustifolia Mill.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Section Dentatae Suarez-Cerv. &amp; Seoane-Camba</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lavandula dentata L. var. dentata (forme rosea Maire, forme albiflora Maire). Lavande dentée, appelée parfois « lavande anglaise », caractérisée par ses feuilles très découpées.
+Lavandula dentata L. var. candicans Batt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Section Stoechas Ging.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lavandula stoechas L. ou lavande stéchas, lavande papillon, cantueso (nom surtout donné à la sous-espèce L. stoechas pedunculata). À l'état sauvage, c'est certainement la lavande dont le territoire géographique est le plus vaste (tout le pourtour méditerranéen). Mais elle n'est d'aucune utilité en parfumerie : elle sent un peu le camphre, et rien d'autre. Elle se distingue des espèces précédentes par deux caractéristiques : d'une part elle apprécie surtout les terrains siliceux, notamment le schiste ; de l'autre elle possède à l'extrémité de ses épis de grandes bractées violettes, souvent plus foncées que les fleurs proprement dites. Floraison : avril-juillet.
 subsp. Stoechas (forme leucantha Ging., forme rosea Maire)
 subsp. pedunculata (Mill.) Samp. ex Rozeira
 subsp. sampaiana Rozeira
@@ -977,9 +1229,47 @@
 subsp. cariensis (Boiss.) Rozeira
 Lavandula viridis L’Hér. De forme similaire à L. stoechas, portant également des bractées. Feuillage plus vert, fleurs le plus souvent blanches. Pousse en Espagne et au Portugal.
 Hybrides
-Lavandula stoechas L. × Lavandula viridis L’Hér.
-Section Pterostoechas Ging.
-Lavandula multifida L.
+Lavandula stoechas L. × Lavandula viridis L’Hér.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Section Pterostoechas Ging.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lavandula multifida L.
 Lavandula canariensis] Mill.
 Lavandula pinnata L. f. Originaire des îles Canaries.
 Lavandula buchii Webb &amp; Berthel.(var. buchii, var. gracile M.C. León, var. tolpidifolia (Svent.) M.C. León)
@@ -994,9 +1284,47 @@
 Hybrides
 Lavandula × christiana Gattef. &amp; Maire
 Lavandula × murbeckiana Emb. &amp; Maire
-Lavandula canariensis Mill. × Lavandula buchii Webb &amp; Berthol. var. buchii
-Section Subnudae Chaytor
-Lavandula subnuda Benth.
+Lavandula canariensis Mill. × Lavandula buchii Webb &amp; Berthol. var. buchii</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Section Subnudae Chaytor</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lavandula subnuda Benth.
 Lavandula macra Baker
 Lavandula dhofarensis A.G. Miller
 subsp. Dhofarensis
@@ -1005,51 +1333,205 @@
 Lavandula nimmoi Benth.
 Lavandula galgalloensis A.G. Miller
 Lavandula aristibracteata A.G. Miller
-Lavandula somaliensis Chaytor
-Section Chaetostachys Benth.
-Lavandula gibsonii Grah.
-Lavandula bipinnata (Roth) Kuntze
-Non classés
-Lavandula hasikensis A.G. Miller
+Lavandula somaliensis Chaytor</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Section Chaetostachys Benth.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lavandula gibsonii Grah.
+Lavandula bipinnata (Roth) Kuntze</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Non classés</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lavandula hasikensis A.G. Miller
 Lavandula atriplicifolia Benth.
-Lavandula erythreae (Chiov.) Cufud.
-Hybrides inter-sections
-Lavandula × allardii Hy
+Lavandula erythreae (Chiov.) Cufud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Principales espèces, sous-espèces et hybrides</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hybrides inter-sections</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lavandula × allardii Hy
 Lavandula × heterophylla Poir.
 Lavandula dentata L. × Lavandula lanata Boiss.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Lavande</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lavande</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, la lavande symbolise la tendresse respectueuse[30].
-Calendrier
-Dans le calendrier républicain français, le 14e jour du mois de Messidor, est officiellement dénommé jour de la Lavande[31].
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la lavande symbolise la tendresse respectueuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lavande</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lavande</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Calendrier</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain français, le 14e jour du mois de Messidor, est officiellement dénommé jour de la Lavande.
 Les noces de lavande symbolisent les 46 ans de mariage dans le folklore français.
 </t>
         </is>
